--- a/OpenCart-Test-Cases.xlsx
+++ b/OpenCart-Test-Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/OpenCart testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b85abe1dd47c73/Desktop/kk/OpenCart-testing-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE3FAC9-065B-48ED-B7A6-9C81CE0D96FA}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC1048EAF11C476A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18888858-B54F-4A94-AA4E-C3C06AF28610}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register TestCases" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Logout TestCases" sheetId="3" r:id="rId3"/>
     <sheet name="ForgotPassword TestCases" sheetId="4" r:id="rId4"/>
     <sheet name="Search TestCases" sheetId="5" r:id="rId5"/>
+    <sheet name="Add to Cart TestCases" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="422">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1503,6 +1504,136 @@
   </si>
   <si>
     <t>1. Search functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>TC_ATC_001</t>
+  </si>
+  <si>
+    <t>(TS_006)
+Add to Cart</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Display' Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button in the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Success: You have added Product Name to your shopping cart!' should be displayed
+2. Product should be successfully displayed in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>TC_ATC_002</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Wish List' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login
+2. A product is added to Wish List page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Wish List' header option 
+2. Click on 'Add to Cart' icon option in the displayed 'My Wish List' page (Validate ER-1)
+3. Click on 'Shopping Cart' header option (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_003</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from Search Results Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results (Validate ER-1)
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on 'View Cart' option in the displayed box (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_004</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Related Products section of the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button on one of the Products displayed in the Related Products section of the displayed 'Product Display' page (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Product Name: Apple Cinema 30"</t>
+  </si>
+  <si>
+    <t>TC_ATC_005</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the category or sub-category page</t>
+  </si>
+  <si>
+    <t>1. Hover the mouse on any of the menu option say 'Desktops'
+2. Click on 'Show All Desktops' option 
+3. Select 'Mac' subcategory option from the left side options 
+4. Click on 'Add to Cart' button that is availble on any of the Products of the displayed Category or Sub-category pages (Validate ER-1)
+5. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_006</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from the Products displayed in the 'Featured' section of Home page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Featured' section of the Home page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_007</t>
+  </si>
+  <si>
+    <t>Validate adding the product to Cart from 'Product Comparison' Page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. A product is added to Product Comparison page  - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1. Click on 'Add to Cart' button on the product that is displayed in the 'Product Comparison' page (Validate ER-1)
+2. Click on the 'shopping cart!' link in the displayed success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>TC_ATC_008</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Add to Cart' funtionality</t>
+  </si>
+  <si>
+    <t>1. Check the UI of the functioanality related to 'Add to Cart' (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the 'Add to Cart' functionality</t>
+  </si>
+  <si>
+    <t>TC_ATC_009</t>
+  </si>
+  <si>
+    <t>Validate the 'Add to Cart' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Check the 'Add to Cart' functionality in all the supported environments (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. 'Add to Cart' functionality should work correctly in all the supported environments</t>
   </si>
 </sst>
 </file>
@@ -3901,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC5FAEF-7B6B-4218-811B-8246538A85BA}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,4 +4594,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6097FE30-46A8-4F13-A2F5-14B4A1CE0293}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>